--- a/temp-dev/shel_data.xlsx
+++ b/temp-dev/shel_data.xlsx
@@ -76,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -96,17 +96,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,46 +181,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,73 +239,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,21 +468,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -499,17 +484,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -517,11 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,153 +520,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,10 +1017,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">

--- a/temp-dev/shel_data.xlsx
+++ b/temp-dev/shel_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t xml:space="preserve">MGN-0068418    </t>
   </si>
@@ -61,13 +61,10 @@
     <t>0С3191</t>
   </si>
   <si>
-    <t xml:space="preserve">MGN-0068153    </t>
-  </si>
-  <si>
-    <t>0С3205</t>
-  </si>
-  <si>
-    <t>бело/голубой</t>
+    <t>0С3122</t>
+  </si>
+  <si>
+    <t>черный</t>
   </si>
 </sst>
 </file>
@@ -75,8 +72,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -96,8 +93,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,16 +108,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,102 +154,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,13 +246,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,91 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,61 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,11 +440,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,6 +484,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,39 +520,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,164 +537,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,7 +1014,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1039,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1">
         <v>230</v>
@@ -1227,22 +1224,22 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1">
-        <v>50</v>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1">
-        <v>414</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/temp-dev/shel_data.xlsx
+++ b/temp-dev/shel_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t xml:space="preserve">MGN-0068418    </t>
   </si>
@@ -61,13 +61,10 @@
     <t>0С3191</t>
   </si>
   <si>
-    <t xml:space="preserve">MGN-0068153    </t>
-  </si>
-  <si>
-    <t>0С3205</t>
-  </si>
-  <si>
-    <t>бело/голубой</t>
+    <t>0С3122</t>
+  </si>
+  <si>
+    <t>черный</t>
   </si>
 </sst>
 </file>
@@ -75,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -104,11 +101,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,16 +124,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,8 +146,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +164,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -159,82 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,11 +440,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,17 +488,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,32 +532,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,142 +542,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,10 +1014,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1036,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1">
         <v>230</v>
@@ -1224,22 +1224,22 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1">
-        <v>50</v>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1">
-        <v>414</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
